--- a/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_08-12_beg.xlsx
+++ b/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_08-12_beg.xlsx
@@ -1056,7 +1056,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Shieldguard"]  One thing is clear, though. Talulah's been planning this for a long time. Damn it. I can't believe we didn’t even see through her facade until it was too late. She really strung us along, that monster! 
+    <t xml:space="preserve">[name="Shieldguard"]  One thing is clear, though. Talulah's been planning this for a long time. Damn it. I can't believe we didn't even see through her facade until it was too late. She really strung us along, that monster! 
 </t>
   </si>
   <si>
@@ -1076,7 +1076,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="??? "]  Well, maybe you’d like to take a little guess? I just might give you a little something if you get it right. 
+    <t xml:space="preserve">[name="??? "]  Well, maybe you'd like to take a little guess? I just might give you a little something if you get it right. 
 </t>
   </si>
   <si>
@@ -1088,7 +1088,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="??? "]  Now, now. Let’s not be hasty. Keep your weapons to yourselves. Wow. That's a big sword. New blood from Rhodes Island, I presume?   
+    <t xml:space="preserve">[name="??? "]  Now, now. Let's not be hasty. Keep your weapons to yourselves. Wow. That's a big sword. New blood from Rhodes Island, I presume?   
 </t>
   </si>
   <si>
@@ -1112,7 +1112,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="W"]  Hold on, time out. White kitty, you can kill me all you want, and I'll admit to anything I've done, but I'm not gonna take the fall for something I didn’t do. 
+    <t xml:space="preserve">[name="W"]  Hold on, time out. White kitty, you can kill me all you want, and I'll admit to anything I've done, but I'm not gonna take the fall for something I didn't do. 
 </t>
   </si>
   <si>
@@ -1164,7 +1164,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="W"]  I’d even say he’s worth more than me.
+    <t xml:space="preserve">[name="W"]  I'd even say he's worth more than me.
 </t>
   </si>
   <si>
@@ -1220,7 +1220,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="W"]  The Sarkaz mercenaries have a fatal flaw. They don't ever give the situation any thought unless they’re out to kill someone.
+    <t xml:space="preserve">[name="W"]  The Sarkaz mercenaries have a fatal flaw. They don't ever give the situation any thought unless they're out to kill someone.
 </t>
   </si>
   <si>
@@ -1268,7 +1268,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="W"]  Yeah, you do. You’re still around because of everything my old pals did. 
+    <t xml:space="preserve">[name="W"]  Yeah, you do. You're still around because of everything my old pals did. 
 </t>
   </si>
   <si>
@@ -1428,7 +1428,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="W"]  So let’s all hope it’s good.
+    <t xml:space="preserve">[name="W"]  So let's all hope it's good.
 </t>
   </si>
   <si>
